--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Team 7 Software Engineering</t>
   </si>
@@ -83,6 +83,15 @@
   <si>
     <t>1. Chuẩn bị kiến thức nền tảng(Django, HTML, Python) 
 Người thực hiện: cả nhóm</t>
+  </si>
+  <si>
+    <t>Hoàn thiện</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thiện</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,12 +214,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -214,6 +223,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,12 +539,13 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -583,87 +605,100 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Team 7 Software Engineering</t>
   </si>
@@ -223,14 +223,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,23 +605,23 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
@@ -640,7 +640,7 @@
       <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
@@ -652,7 +652,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="14"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -664,7 +664,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -678,7 +678,9 @@
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
@@ -690,7 +692,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
